--- a/Products.xlsx
+++ b/Products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\RPA-Project\RPA_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51369DE0-0DD9-473D-ABB5-459AEFF2AE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CF5D4-56FB-41E2-9CA1-BF0518DA86CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="1128" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Name</t>
+    <t>Product</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>Telefon mobil Samsung Galaxy S23</t>
   </si>
 </sst>
 </file>
@@ -366,14 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -382,11 +380,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CF5D4-56FB-41E2-9CA1-BF0518DA86CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41780F10-8E77-4932-B63B-17A00F1AF01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1128" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Product</t>
+    <t>Samsung Galaxy S23</t>
   </si>
   <si>
-    <t>Telefon mobil Samsung Galaxy S23</t>
+    <t>ProductName</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,14 +378,14 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41780F10-8E77-4932-B63B-17A00F1AF01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CEEA60-987E-46F8-B73A-72823915086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Samsung Galaxy S23</t>
   </si>
   <si>
     <t>ProductName</t>
+  </si>
+  <si>
+    <t>iPhone 15</t>
+  </si>
+  <si>
+    <t>iPhone 13</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22</t>
+  </si>
+  <si>
+    <t>Telefon mobil Nothing Phone</t>
   </si>
 </sst>
 </file>
@@ -363,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,6 +400,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
